--- a/genome_annotation_and_characterization/peptide_cleavage_sites.xlsx
+++ b/genome_annotation_and_characterization/peptide_cleavage_sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/genome_annotation_and_characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24719CE9-7D8D-F544-AFFA-FABFCFB12F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC404E5B-4259-5840-A56D-271FBAC267FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-1980" windowWidth="18160" windowHeight="20060" xr2:uid="{F16FD504-3439-9D46-8A08-3757F6095032}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23520" windowHeight="17320" xr2:uid="{F16FD504-3439-9D46-8A08-3757F6095032}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="257">
   <si>
     <t>accession</t>
   </si>
@@ -672,6 +672,141 @@
   </si>
   <si>
     <t>leQ/Gqi</t>
+  </si>
+  <si>
+    <t>kpM/Yah</t>
+  </si>
+  <si>
+    <t>aaQ/Gip</t>
+  </si>
+  <si>
+    <t>ffQ/Glg</t>
+  </si>
+  <si>
+    <t>yyQ/Eqa</t>
+  </si>
+  <si>
+    <t>veQ/Gll</t>
+  </si>
+  <si>
+    <t>eeQ/Gpt</t>
+  </si>
+  <si>
+    <t>lfQ/Gpg</t>
+  </si>
+  <si>
+    <t>gqQ/Gpy</t>
+  </si>
+  <si>
+    <t>nfQ/Gsi</t>
+  </si>
+  <si>
+    <t>tqC/Gva</t>
+  </si>
+  <si>
+    <t>srQ/Gvp</t>
+  </si>
+  <si>
+    <t>isQ/Tpi</t>
+  </si>
+  <si>
+    <t>meQ/Gpm</t>
+  </si>
+  <si>
+    <t>lpQ/Gvs</t>
+  </si>
+  <si>
+    <t>lfQ/Gpv</t>
+  </si>
+  <si>
+    <t>ssQ/Gpy</t>
+  </si>
+  <si>
+    <t>leQ/Gei</t>
+  </si>
+  <si>
+    <t>tlA/Die</t>
+  </si>
+  <si>
+    <t>mtQ/Mmr</t>
+  </si>
+  <si>
+    <t>ttQ/Agd</t>
+  </si>
+  <si>
+    <t>eqS/Qfl</t>
+  </si>
+  <si>
+    <t>ftQ/Ant</t>
+  </si>
+  <si>
+    <t>lkA/Esl</t>
+  </si>
+  <si>
+    <t>wsQ/Gfs</t>
+  </si>
+  <si>
+    <t>sdS/Qsv</t>
+  </si>
+  <si>
+    <t>enQ/Gpd</t>
+  </si>
+  <si>
+    <t>qrQ/Gms</t>
+  </si>
+  <si>
+    <t>kfE/Eee</t>
+  </si>
+  <si>
+    <t>ssE/Ase</t>
+  </si>
+  <si>
+    <t>kaE/Sld</t>
+  </si>
+  <si>
+    <t>dsQ/Svv</t>
+  </si>
+  <si>
+    <t>ltT/Gvy</t>
+  </si>
+  <si>
+    <t>qaQ/Rit</t>
+  </si>
+  <si>
+    <t>qfQ/Glg</t>
+  </si>
+  <si>
+    <t>qqG/Spl</t>
+  </si>
+  <si>
+    <t>vaQ/Apv</t>
+  </si>
+  <si>
+    <t>qeQ/Gpy</t>
+  </si>
+  <si>
+    <t>diQ/Gpn</t>
+  </si>
+  <si>
+    <t>epQ/Gal</t>
+  </si>
+  <si>
+    <t>kqC/Gva</t>
+  </si>
+  <si>
+    <t>nrQ/Gip</t>
+  </si>
+  <si>
+    <t>isQ/Tpv</t>
+  </si>
+  <si>
+    <t>meQ/Gpi</t>
+  </si>
+  <si>
+    <t>lpQ/Gis</t>
+  </si>
+  <si>
+    <t>vaQ/Gpd</t>
   </si>
 </sst>
 </file>
@@ -1069,11 +1204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483D0AA0-C9BD-5F43-9422-C91C102D3129}">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1154,842 +1289,2007 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="E19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R25" s="5"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="E29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R29" s="5"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="E30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="E31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R33" s="5"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E35" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R35" s="5"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R36" s="5"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="R37" s="5"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S39" s="1" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="T39" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="U39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="V39" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>103</v>
@@ -2017,21 +3317,21 @@
         <v>104</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>103</v>
@@ -2056,24 +3356,24 @@
         <v>108</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>103</v>
@@ -2101,21 +3401,21 @@
         <v>108</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>103</v>
@@ -2140,13 +3440,13 @@
         <v>108</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>108</v>
@@ -2154,10 +3454,10 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>103</v>
@@ -2182,13 +3482,13 @@
         <v>108</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>108</v>
@@ -2196,10 +3496,10 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>103</v>
@@ -2233,15 +3533,15 @@
         <v>108</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>103</v>
@@ -2266,7 +3566,7 @@
         <v>108</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>108</v>
@@ -2275,15 +3575,15 @@
         <v>108</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>103</v>
@@ -2308,21 +3608,21 @@
         <v>108</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>50</v>
@@ -2359,12 +3659,12 @@
         <v>122</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>50</v>
@@ -2392,13 +3692,13 @@
         <v>108</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>108</v>
@@ -2406,7 +3706,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>50</v>
@@ -2434,7 +3734,7 @@
         <v>108</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="T50" s="2" t="s">
         <v>108</v>
@@ -2448,7 +3748,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>50</v>
@@ -2488,48 +3788,6 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/genome_annotation_and_characterization/peptide_cleavage_sites.xlsx
+++ b/genome_annotation_and_characterization/peptide_cleavage_sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/genome_annotation_and_characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC404E5B-4259-5840-A56D-271FBAC267FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB3BCE-E450-2945-926E-244FDA8E0646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23520" windowHeight="17320" xr2:uid="{F16FD504-3439-9D46-8A08-3757F6095032}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="13500" windowHeight="17320" xr2:uid="{F16FD504-3439-9D46-8A08-3757F6095032}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="253">
   <si>
     <t>accession</t>
   </si>
@@ -734,30 +734,15 @@
     <t>ttQ/Agd</t>
   </si>
   <si>
-    <t>eqS/Qfl</t>
-  </si>
-  <si>
-    <t>ftQ/Ant</t>
-  </si>
-  <si>
-    <t>lkA/Esl</t>
-  </si>
-  <si>
     <t>wsQ/Gfs</t>
   </si>
   <si>
-    <t>sdS/Qsv</t>
-  </si>
-  <si>
     <t>enQ/Gpd</t>
   </si>
   <si>
     <t>qrQ/Gms</t>
   </si>
   <si>
-    <t>kfE/Eee</t>
-  </si>
-  <si>
     <t>ssE/Ase</t>
   </si>
   <si>
@@ -807,6 +792,9 @@
   </si>
   <si>
     <t>vaQ/Gpd</t>
+  </si>
+  <si>
+    <t>kfE/Eel</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1196,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2005,21 +1993,23 @@
       <c r="J15" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="L15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="O15" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>108</v>
@@ -2181,7 +2171,7 @@
         <v>163</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>165</v>
@@ -2443,7 +2433,7 @@
         <v>181</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>183</v>
@@ -2584,25 +2574,25 @@
         <v>231</v>
       </c>
       <c r="K26" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="R26" s="5"/>
       <c r="S26" s="2"/>
@@ -2636,25 +2626,25 @@
         <v>231</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="2"/>
@@ -2706,7 +2696,7 @@
         <v>108</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="2"/>
@@ -2739,7 +2729,7 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>159</v>
@@ -3018,19 +3008,19 @@
         <v>108</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="2"/>
@@ -3052,14 +3042,14 @@
         <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
         <v>167</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
@@ -3120,13 +3110,13 @@
         <v>108</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>108</v>
@@ -3189,7 +3179,7 @@
         <v>227</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>228</v>
